--- a/Resource_Documents/Antenna_Shape_Calculator.xlsx
+++ b/Resource_Documents/Antenna_Shape_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahim\Downloads\KiCad Projects\PCB_Business_Card\Resource_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383AD707-2632-4A11-A545-8FD25BC2A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EFF78-73CB-41EF-8FFE-324E766F74C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CE38636-6DAC-4B3B-8934-1E4F4D0D1D50}"/>
   </bookViews>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629267D-1389-43DD-98C2-78597FD78C9E}">
   <dimension ref="A2:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="M12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="Z10" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AA10" s="5"/>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="Z22" s="14">
         <f xml:space="preserve"> Z10 - Z14 * (Z12 + Z13)</f>
-        <v>3.7400000000000003E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="AA22" s="5"/>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="Z24" s="14">
         <f xml:space="preserve"> Z22 * PI()</f>
-        <v>0.11749556524425828</v>
+        <v>0.11435397259066847</v>
       </c>
       <c r="AA24" s="5"/>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="Z26" s="16">
         <f xml:space="preserve"> 2 * (Z24*100) * (LN((Z24*100)/(Z20*100)) - 1.07) * (Z14^1.8)</f>
-        <v>2754.2199484925009</v>
+        <v>2664.9838407380171</v>
       </c>
       <c r="AA26" s="5"/>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="Z27" s="16">
         <f>Z26/1000</f>
-        <v>2.754219948492501</v>
+        <v>2.6649838407380169</v>
       </c>
       <c r="AA27" s="5"/>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="Z28" s="16">
         <f>Z27/1000000</f>
-        <v>2.7542199484925011E-6</v>
+        <v>2.664983840738017E-6</v>
       </c>
       <c r="AA28" s="5"/>
     </row>

--- a/Resource_Documents/Antenna_Shape_Calculator.xlsx
+++ b/Resource_Documents/Antenna_Shape_Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahim\Downloads\KiCad Projects\PCB_Business_Card\Resource_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63EFF78-73CB-41EF-8FFE-324E766F74C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CCB255-3C3C-4BD4-8DC1-22528FC99657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CE38636-6DAC-4B3B-8934-1E4F4D0D1D50}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="12456" xr2:uid="{8CE38636-6DAC-4B3B-8934-1E4F4D0D1D50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>282689</xdr:colOff>
+      <xdr:colOff>289039</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>113364</xdr:rowOff>
     </xdr:to>
@@ -419,9 +419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
+      <xdr:colOff>593271</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>159545</xdr:rowOff>
+      <xdr:rowOff>169705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -465,7 +465,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>416181</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>133906</xdr:rowOff>
+      <xdr:rowOff>140256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -509,7 +509,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>749573</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>94445</xdr:rowOff>
+      <xdr:rowOff>100795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629267D-1389-43DD-98C2-78597FD78C9E}">
   <dimension ref="A2:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +968,7 @@
         <v>22</v>
       </c>
       <c r="Z10" s="3">
-        <v>0.04</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AA10" s="5"/>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="Z22" s="14">
         <f xml:space="preserve"> Z10 - Z14 * (Z12 + Z13)</f>
-        <v>3.6400000000000002E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="AA22" s="5"/>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="Z24" s="14">
         <f xml:space="preserve"> Z22 * PI()</f>
-        <v>0.11435397259066847</v>
+        <v>0.11121237993707868</v>
       </c>
       <c r="AA24" s="5"/>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="Z26" s="16">
         <f xml:space="preserve"> 2 * (Z24*100) * (LN((Z24*100)/(Z20*100)) - 1.07) * (Z14^1.8)</f>
-        <v>2664.9838407380171</v>
+        <v>2576.1820485329949</v>
       </c>
       <c r="AA26" s="5"/>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="Z27" s="16">
         <f>Z26/1000</f>
-        <v>2.6649838407380169</v>
+        <v>2.5761820485329952</v>
       </c>
       <c r="AA27" s="5"/>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="Z28" s="16">
         <f>Z27/1000000</f>
-        <v>2.664983840738017E-6</v>
+        <v>2.5761820485329952E-6</v>
       </c>
       <c r="AA28" s="5"/>
     </row>
